--- a/app/storage/holds.xlsx
+++ b/app/storage/holds.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5CD63378-AF26-44BE-8062-BFACC6BA8708}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05E17E-14F6-441B-8B0A-EB8B25A05009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -103,10 +103,10 @@
     <t>FALTA DS BRIDA</t>
   </si>
   <si>
-    <t>027A1-021702-15-SW2-16SS21-0239_01</t>
-  </si>
-  <si>
     <t>027A1-021702-15-SW2-16SS21-0243_01</t>
+  </si>
+  <si>
+    <t>D1-60-WW3-05096-100-16SS01-PFET_01</t>
   </si>
 </sst>
 </file>
@@ -142,8 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +430,13 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -497,9 +503,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -564,7 +570,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>

--- a/app/storage/holds.xlsx
+++ b/app/storage/holds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05E17E-14F6-441B-8B0A-EB8B25A05009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31628CF-3EF8-416D-8F7D-615E8C140979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
